--- a/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\src\Tests\bin\Debug\net6.0\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\src\Tests\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855" activeTab="1"/>
+    <x:workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="НашиОрганизации" sheetId="7" r:id="rId1"/>
@@ -782,67 +782,102 @@
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
+    <x:t>08.02.2023</x:t>
+  </x:si>
+  <x:si>
     <x:t/>
   </x:si>
   <x:si>
+    <x:t>Загружен частично</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Руководитель "Кондратьев Роман Георгиевич". Наименование подразделения: "Отдел снабжения".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Подразделение" с именем "Отдел продаж". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иванов Иван Иванович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Законов Сергей Юрьевич</x:t>
+  </x:si>
+  <x:si>
     <x:t>12.05.2023</x:t>
   </x:si>
   <x:si>
-    <x:t>Загружен частично</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Руководитель "Суворова Екатерина Андреевна". Наименование подразделения: "Финансово-юридический отдел".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Руководитель "Кондратьев Роман Георгиевич". Наименование подразделения: "Отдел снабжения".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Законов Сергей Юрьевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иванов Иван Иванович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Ответственный "Не загружен". Наименование организации: "Авалон ООО". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Ответственный "Не загружен". Наименование организации: "Политекс ООО". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Ответственный "Не загружен". Наименование организации: "Точка Росы ООО". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Ответственный "Не загружен". Наименование организации: "ТРАНСФИНГРУП, УК". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Ответственный "Не загружен". Наименование организации: "Ярко ООО". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Ответственный "Не загружен". Наименование организации: "Digital River GmbH". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось найти соответствующего сотрудника "Юрист Законов Сергей".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось найти соответствующего сотрудника "Руководитель отдела ОТО Белоусова Лидия".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не заполнено поле "Фамилия".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось найти соответствующего сотрудника "Инженер Иванов Иван".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось найти соответствующего сотрудника "Генеральный директор Ивановский Геннадий".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось найти соответствующего сотрудника "Главный инженер Коломенцев Сергей".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не заполнено поле "Имя".</x:t>
+    <x:t>14.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1316,8 +1351,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:W3"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2:XFD3"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="B20" sqref="B20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1457,10 +1492,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="V2" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="W2" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="W2" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1504,10 +1539,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="W3" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="W3" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1522,8 +1557,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:K8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F11" sqref="F11"/>
+    <x:sheetView topLeftCell="C1" workbookViewId="0">
+      <x:selection activeCell="F7" sqref="F7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1571,15 +1606,6 @@
       <x:c r="K1" s="7" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="U1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="V1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="W1" t="s">
-        <x:v>37</x:v>
-      </x:c>
     </x:row>
     <x:row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <x:c r="A2" t="s">
@@ -1592,25 +1618,16 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I2" s="7" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="J2" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="K2" s="7" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="K2" s="7" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="U2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="W2" t="s">
-        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1630,19 +1647,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J3" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="K3" s="7" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="K3" s="7" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="U3" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V3" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="W3" t="s">
-        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1662,19 +1670,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J4" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="K4" s="7" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="K4" s="7" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="U4" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V4" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="W4" t="s">
-        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1688,25 +1687,16 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I5" s="7" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="J5" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="K5" s="7" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="K5" s="7" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="U5" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V5" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="W5" t="s">
-        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1720,34 +1710,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="K6" s="7" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="K6" s="7" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="U6" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V6" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="W6" t="s">
-        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="I7" s="7"/>
       <x:c r="J7" s="7"/>
       <x:c r="K7" s="8"/>
-      <x:c r="U7" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V7" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="W7" t="s">
-        <x:v>111</x:v>
-      </x:c>
     </x:row>
     <x:row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <x:c r="I8" s="7"/>
@@ -1766,7 +1738,7 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:V15"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <x:sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <x:selection activeCell="O3" sqref="O3"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1808,13 +1780,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
         <x:v>0</x:v>
@@ -1826,13 +1798,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L1" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="N1" s="1" t="s">
         <x:v>34</x:v>
@@ -1876,22 +1848,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>112</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>100</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="K2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="L2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="M2" t="s">
-        <x:v>99</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="S2" t="s">
         <x:v>69</x:v>
@@ -1900,10 +1863,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U2" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="V2" s="7" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="V2" s="7" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1920,31 +1883,19 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>112</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="K3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="L3" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="M3" t="s">
-        <x:v>99</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="T3" s="7" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="U3" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="V3" s="7" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="V3" s="7" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -1957,23 +1908,8 @@
       <x:c r="D4" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="E4" t="s">
-        <x:v>112</x:v>
-      </x:c>
       <x:c r="F4" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G4" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="K4" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="L4" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="M4" t="s">
-        <x:v>119</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O4" t="s">
         <x:v>78</x:v>
@@ -1982,10 +1918,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U4" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="V4" s="7" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="V4" s="7" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -2002,34 +1938,22 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>112</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G5" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="K5" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="L5" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="M5" t="s">
-        <x:v>99</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O5" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="T5" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="U5" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="V5" s="7" t="s">
-        <x:v>99</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -2046,13 +1970,13 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E6" t="s">
-        <x:v>112</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>100</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G6" t="s">
-        <x:v>117</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H6" s="6">
         <x:v>330500938709</x:v>
@@ -2064,13 +1988,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="K6" t="s">
-        <x:v>98</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L6" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="M6" t="s">
-        <x:v>99</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N6" t="s">
         <x:v>92</x:v>
@@ -2085,10 +2006,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="V6" s="7" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="V6" s="7" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -2105,31 +2026,22 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>112</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F7" t="s">
-        <x:v>100</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G7" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K7" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="L7" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="M7" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="T7" s="7" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="U7" s="7" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="V7" s="7" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="V7" s="7" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22" x14ac:dyDescent="0.2">

--- a/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
@@ -818,6 +818,119 @@
   <x:si>
     <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
 Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не удалось создать персону "Законов Сергей Юрьевич".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не удалось создать персону "Белоусова Лидия Александровна".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не удалось создать персону "Добрынин Никита ".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не удалось создать персону "Иванов Иван Иванович".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не удалось создать персону "Ивановский Геннадий Александрович".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не удалось создать персону "Коломенцев Сергей Петрович".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Руководитель "Ивановский Геннадий Александрович". Наименование НОР: "ТехноСистемы ЗАО". 
+Не найден Населенный пункт "". Наименование НОР: "ТехноСистемы ЗАО". 
+Не найден Регион "г. Ижевск". Наименование НОР: "ТехноСистемы ЗАО". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Руководитель "Ивановский Геннадий Александрович". Наименование НОР: "Смарт-Сервис, ООО". 
+Не найден Населенный пункт "". Наименование НОР: "Смарт-Сервис, ООО". 
+Не найден Регион "г. Ижевск". Наименование НОР: "Смарт-Сервис, ООО". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Финансово-юридический отдел". 
+Не найден Руководитель "Законов Сергей Юрьевич". Наименование подразделения: "Финансово-юридический отдел". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Технический отдел". 
+Не найден Руководитель "Коломенцев Сергей Петрович". Наименование подразделения: "Технический отдел". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Служба генерального директора". 
+Не найден Руководитель "Ивановский Геннадий Александрович". Наименование подразделения: "Служба генерального директора". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Отдел снабжения". 
+Не найден Руководитель "Иванов Иван Иванович". Наименование подразделения: "Отдел снабжения". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найдена НОР "ТехноСистемы ЗАО". Наименование подразделения: "Отдел продаж". </x:t>
   </x:si>
   <x:si>
     <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
@@ -1492,7 +1605,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="V2" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="W2" t="s">
         <x:v>100</x:v>
@@ -1539,7 +1652,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="W3" t="s">
         <x:v>100</x:v>
@@ -1624,7 +1737,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J2" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="K2" s="7" t="s">
         <x:v>100</x:v>
@@ -1647,7 +1760,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J3" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="K3" s="7" t="s">
         <x:v>100</x:v>
@@ -1670,7 +1783,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J4" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="K4" s="7" t="s">
         <x:v>100</x:v>
@@ -1693,7 +1806,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J5" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="K5" s="7" t="s">
         <x:v>100</x:v>
@@ -1710,7 +1823,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="K6" s="7" t="s">
         <x:v>100</x:v>
@@ -1863,7 +1976,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U2" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="V2" s="7" t="s">
         <x:v>100</x:v>
@@ -1892,7 +2005,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U3" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
         <x:v>100</x:v>
@@ -1918,7 +2031,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U4" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="V4" s="7" t="s">
         <x:v>100</x:v>
@@ -1950,10 +2063,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="U5" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="V5" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -2006,7 +2119,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="V6" s="7" t="s">
         <x:v>100</x:v>
@@ -2038,7 +2151,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U7" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="V7" s="7" t="s">
         <x:v>100</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
@@ -975,6 +975,25 @@
   <x:si>
     <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
 Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.05.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
@@ -1605,7 +1624,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="V2" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="W2" t="s">
         <x:v>100</x:v>
@@ -1652,7 +1671,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="W3" t="s">
         <x:v>100</x:v>
@@ -1737,7 +1756,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J2" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K2" s="7" t="s">
         <x:v>100</x:v>
@@ -1760,7 +1779,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J3" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K3" s="7" t="s">
         <x:v>100</x:v>
@@ -1783,7 +1802,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J4" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K4" s="7" t="s">
         <x:v>100</x:v>
@@ -1806,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J5" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K5" s="7" t="s">
         <x:v>100</x:v>
@@ -1823,7 +1842,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K6" s="7" t="s">
         <x:v>100</x:v>
@@ -1976,7 +1995,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U2" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V2" s="7" t="s">
         <x:v>100</x:v>
@@ -2005,7 +2024,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U3" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
         <x:v>100</x:v>
@@ -2031,7 +2050,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U4" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V4" s="7" t="s">
         <x:v>100</x:v>
@@ -2060,13 +2079,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="T5" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="U5" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V5" s="7" t="s">
-        <x:v>155</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -2119,7 +2138,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V6" s="7" t="s">
         <x:v>100</x:v>
@@ -2151,7 +2170,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U7" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V7" s="7" t="s">
         <x:v>100</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
@@ -994,6 +994,14 @@
   </x:si>
   <x:si>
     <x:t>17.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
   </x:si>
   <x:si>
     <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
@@ -2079,13 +2087,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="T5" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="U5" s="7" t="s">
         <x:v>156</x:v>
       </x:c>
       <x:c r="V5" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22" x14ac:dyDescent="0.2">

--- a/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
@@ -1014,6 +1014,13 @@
   <x:si>
     <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
 Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.08.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
@@ -1632,7 +1639,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="V2" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="W2" t="s">
         <x:v>100</x:v>
@@ -1679,7 +1686,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="W3" t="s">
         <x:v>100</x:v>
@@ -1764,7 +1771,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J2" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="K2" s="7" t="s">
         <x:v>100</x:v>
@@ -1787,7 +1794,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J3" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="K3" s="7" t="s">
         <x:v>100</x:v>
@@ -1810,7 +1817,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J4" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="K4" s="7" t="s">
         <x:v>100</x:v>
@@ -1833,7 +1840,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J5" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="K5" s="7" t="s">
         <x:v>100</x:v>
@@ -1850,7 +1857,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="K6" s="7" t="s">
         <x:v>100</x:v>
@@ -2003,7 +2010,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U2" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="V2" s="7" t="s">
         <x:v>100</x:v>
@@ -2032,7 +2039,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U3" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
         <x:v>100</x:v>
@@ -2058,7 +2065,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U4" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="V4" s="7" t="s">
         <x:v>100</x:v>
@@ -2090,10 +2097,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="U5" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="V5" s="7" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -2146,7 +2153,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="V6" s="7" t="s">
         <x:v>100</x:v>
@@ -2178,7 +2185,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U7" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="V7" s="7" t="s">
         <x:v>100</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Company.xlsx
@@ -1006,21 +1006,6 @@
   <x:si>
     <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
 Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
-Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
-Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
-Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03.08.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
@@ -1639,7 +1624,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="V2" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="W2" t="s">
         <x:v>100</x:v>
@@ -1686,7 +1671,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="W3" t="s">
         <x:v>100</x:v>
@@ -1771,7 +1756,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J2" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K2" s="7" t="s">
         <x:v>100</x:v>
@@ -1794,7 +1779,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J3" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K3" s="7" t="s">
         <x:v>100</x:v>
@@ -1817,7 +1802,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J4" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K4" s="7" t="s">
         <x:v>100</x:v>
@@ -1840,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J5" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K5" s="7" t="s">
         <x:v>100</x:v>
@@ -1857,7 +1842,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K6" s="7" t="s">
         <x:v>100</x:v>
@@ -2010,7 +1995,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U2" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V2" s="7" t="s">
         <x:v>100</x:v>
@@ -2039,7 +2024,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U3" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V3" s="7" t="s">
         <x:v>100</x:v>
@@ -2065,7 +2050,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U4" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V4" s="7" t="s">
         <x:v>100</x:v>
@@ -2094,13 +2079,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="T5" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="U5" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V5" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -2153,7 +2138,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V6" s="7" t="s">
         <x:v>100</x:v>
@@ -2185,7 +2170,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="U7" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V7" s="7" t="s">
         <x:v>100</x:v>
